--- a/xl/КБиСП 3 курс 2 сем-Д.xlsx
+++ b/xl/КБиСП 3 курс 2 сем-Д.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10457" uniqueCount="766">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10459" uniqueCount="766">
   <si>
     <t>ВТОРНИК</t>
   </si>
@@ -11321,10 +11321,10 @@
   <dimension ref="A1:MV94"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="CR4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="GI4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="DG13" sqref="DG13"/>
+      <selection pane="bottomRight" activeCell="HC8" sqref="HC8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="21"/>
@@ -17959,8 +17959,8 @@
       <c r="GZ10" s="1281" t="s">
         <v>106</v>
       </c>
-      <c r="HA10" s="1336">
-        <v>228</v>
+      <c r="HA10" s="1308" t="s">
+        <v>125</v>
       </c>
       <c r="HB10" s="1311"/>
       <c r="HC10" s="1323" t="s">
@@ -17972,8 +17972,8 @@
       <c r="HE10" s="1281" t="s">
         <v>106</v>
       </c>
-      <c r="HF10" s="1336">
-        <v>228</v>
+      <c r="HF10" s="1308" t="s">
+        <v>125</v>
       </c>
       <c r="HG10" s="431"/>
       <c r="HH10" s="897" t="s">
